--- a/Code/Results/Cases/Case_2_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00405421723118</v>
+        <v>1.035200265770164</v>
       </c>
       <c r="D2">
-        <v>1.026260429609556</v>
+        <v>1.044635980063504</v>
       </c>
       <c r="E2">
-        <v>1.025209251973628</v>
+        <v>1.052638256155214</v>
       </c>
       <c r="F2">
-        <v>1.033472629846508</v>
+        <v>1.058119108826274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046715873214009</v>
+        <v>1.037241743938605</v>
       </c>
       <c r="J2">
-        <v>1.026114339867698</v>
+        <v>1.040315340478905</v>
       </c>
       <c r="K2">
-        <v>1.037365647255856</v>
+        <v>1.047406473663439</v>
       </c>
       <c r="L2">
-        <v>1.036328207731525</v>
+        <v>1.055386435026599</v>
       </c>
       <c r="M2">
-        <v>1.044484531695657</v>
+        <v>1.060852215044985</v>
       </c>
       <c r="N2">
-        <v>1.027571539927273</v>
+        <v>1.041792707588223</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008545844723757</v>
+        <v>1.036155896752796</v>
       </c>
       <c r="D3">
-        <v>1.029642646807608</v>
+        <v>1.04537756060644</v>
       </c>
       <c r="E3">
-        <v>1.0291455586007</v>
+        <v>1.053550349791475</v>
       </c>
       <c r="F3">
-        <v>1.037397728798653</v>
+        <v>1.059010151720544</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04777516603354</v>
+        <v>1.037407022813624</v>
       </c>
       <c r="J3">
-        <v>1.028806221773291</v>
+        <v>1.040914389777309</v>
       </c>
       <c r="K3">
-        <v>1.039909788859105</v>
+        <v>1.047959514080242</v>
       </c>
       <c r="L3">
-        <v>1.039418618456652</v>
+        <v>1.05611115965238</v>
       </c>
       <c r="M3">
-        <v>1.047573455660431</v>
+        <v>1.061557032709588</v>
       </c>
       <c r="N3">
-        <v>1.030267244613932</v>
+        <v>1.042392607605342</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011394290764796</v>
+        <v>1.036774746733029</v>
       </c>
       <c r="D4">
-        <v>1.031790086988694</v>
+        <v>1.045857702897246</v>
       </c>
       <c r="E4">
-        <v>1.031651057753039</v>
+        <v>1.054141679311682</v>
       </c>
       <c r="F4">
-        <v>1.039893121469694</v>
+        <v>1.059587511591875</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048436893930389</v>
+        <v>1.037512773598052</v>
       </c>
       <c r="J4">
-        <v>1.03051095306472</v>
+        <v>1.041301895839258</v>
       </c>
       <c r="K4">
-        <v>1.041519395592447</v>
+        <v>1.04831699144894</v>
       </c>
       <c r="L4">
-        <v>1.041381919649387</v>
+        <v>1.056580614999699</v>
       </c>
       <c r="M4">
-        <v>1.049532781004904</v>
+        <v>1.062013253780765</v>
       </c>
       <c r="N4">
-        <v>1.03197439681933</v>
+        <v>1.042780663970347</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012578392825502</v>
+        <v>1.037035028294216</v>
       </c>
       <c r="D5">
-        <v>1.032683333698097</v>
+        <v>1.046059622740226</v>
       </c>
       <c r="E5">
-        <v>1.032694755963286</v>
+        <v>1.054390546609109</v>
       </c>
       <c r="F5">
-        <v>1.040931897224054</v>
+        <v>1.059830422635389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048709523512585</v>
+        <v>1.037556944423396</v>
       </c>
       <c r="J5">
-        <v>1.031219007475043</v>
+        <v>1.041464773957415</v>
       </c>
       <c r="K5">
-        <v>1.042187549951191</v>
+        <v>1.048467183661131</v>
       </c>
       <c r="L5">
-        <v>1.04219884806476</v>
+        <v>1.056778094880707</v>
       </c>
       <c r="M5">
-        <v>1.050347326498317</v>
+        <v>1.062205085423169</v>
       </c>
       <c r="N5">
-        <v>1.032683456748131</v>
+        <v>1.042943773394113</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012776437569862</v>
+        <v>1.037078737548626</v>
       </c>
       <c r="D6">
-        <v>1.0328327628859</v>
+        <v>1.04609352991789</v>
       </c>
       <c r="E6">
-        <v>1.032869443188107</v>
+        <v>1.054432348451689</v>
       </c>
       <c r="F6">
-        <v>1.041105718708439</v>
+        <v>1.059871219505223</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048754976347481</v>
+        <v>1.037564344064978</v>
       </c>
       <c r="J6">
-        <v>1.031337395266096</v>
+        <v>1.041492120156253</v>
       </c>
       <c r="K6">
-        <v>1.04229924299759</v>
+        <v>1.048492396210842</v>
       </c>
       <c r="L6">
-        <v>1.042335526468829</v>
+        <v>1.056811259672107</v>
       </c>
       <c r="M6">
-        <v>1.050483563356898</v>
+        <v>1.062237296892283</v>
       </c>
       <c r="N6">
-        <v>1.032802012663427</v>
+        <v>1.042971158427691</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011410164760805</v>
+        <v>1.036778224169329</v>
       </c>
       <c r="D7">
-        <v>1.031802059684582</v>
+        <v>1.045860400694572</v>
       </c>
       <c r="E7">
-        <v>1.031665041041769</v>
+        <v>1.05414500362035</v>
       </c>
       <c r="F7">
-        <v>1.039907041619171</v>
+        <v>1.059590756640549</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048440558522661</v>
+        <v>1.037513364938413</v>
       </c>
       <c r="J7">
-        <v>1.030520447628101</v>
+        <v>1.041304072341497</v>
       </c>
       <c r="K7">
-        <v>1.041528356683984</v>
+        <v>1.048318998684622</v>
       </c>
       <c r="L7">
-        <v>1.041392868313009</v>
+        <v>1.056583253262238</v>
       </c>
       <c r="M7">
-        <v>1.049543700610577</v>
+        <v>1.062015816903491</v>
       </c>
       <c r="N7">
-        <v>1.031983904866081</v>
+        <v>1.042782843563469</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005584480149823</v>
+        <v>1.035523123114653</v>
       </c>
       <c r="D8">
-        <v>1.027412155393382</v>
+        <v>1.044886539758375</v>
       </c>
       <c r="E8">
-        <v>1.026548355645311</v>
+        <v>1.052946264708122</v>
       </c>
       <c r="F8">
-        <v>1.034808542890314</v>
+        <v>1.05842007532138</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04707884518779</v>
+        <v>1.037297847953807</v>
       </c>
       <c r="J8">
-        <v>1.027031919473859</v>
+        <v>1.040517816029301</v>
       </c>
       <c r="K8">
-        <v>1.038233185103312</v>
+        <v>1.047593453625484</v>
       </c>
       <c r="L8">
-        <v>1.037380330844674</v>
+        <v>1.055631252742315</v>
       </c>
       <c r="M8">
-        <v>1.045536782650995</v>
+        <v>1.061090378226454</v>
       </c>
       <c r="N8">
-        <v>1.02849042260172</v>
+        <v>1.041995470677124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9948520670589489</v>
+        <v>1.0333152914302</v>
       </c>
       <c r="D9">
-        <v>1.019347856766797</v>
+        <v>1.043172756994837</v>
       </c>
       <c r="E9">
-        <v>1.017198027357672</v>
+        <v>1.050842760990109</v>
       </c>
       <c r="F9">
-        <v>1.025467927153144</v>
+        <v>1.056363344364621</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044492341422938</v>
+        <v>1.036908946241351</v>
       </c>
       <c r="J9">
-        <v>1.020587931025446</v>
+        <v>1.039131464089577</v>
       </c>
       <c r="K9">
-        <v>1.032134638314914</v>
+        <v>1.046312112492944</v>
       </c>
       <c r="L9">
-        <v>1.030018107513965</v>
+        <v>1.053957668042603</v>
       </c>
       <c r="M9">
-        <v>1.038160889789945</v>
+        <v>1.05946089450463</v>
       </c>
       <c r="N9">
-        <v>1.022037282950574</v>
+        <v>1.040607149958629</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9873489350517517</v>
+        <v>1.031846025414848</v>
       </c>
       <c r="D10">
-        <v>1.01372975223533</v>
+        <v>1.042031855422512</v>
       </c>
       <c r="E10">
-        <v>1.010716479799438</v>
+        <v>1.049446448861814</v>
       </c>
       <c r="F10">
-        <v>1.018977109468493</v>
+        <v>1.054996420117855</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042634197389112</v>
+        <v>1.036643570364821</v>
       </c>
       <c r="J10">
-        <v>1.016073639924545</v>
+        <v>1.038206702851221</v>
       </c>
       <c r="K10">
-        <v>1.02785545903661</v>
+        <v>1.045456040418369</v>
       </c>
       <c r="L10">
-        <v>1.024894903600548</v>
+        <v>1.052844682897175</v>
       </c>
       <c r="M10">
-        <v>1.033011976264871</v>
+        <v>1.058375492004066</v>
       </c>
       <c r="N10">
-        <v>1.017516581038513</v>
+        <v>1.039681075453243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9840091010777656</v>
+        <v>1.031210450157135</v>
       </c>
       <c r="D11">
-        <v>1.011234646736533</v>
+        <v>1.041538234332009</v>
       </c>
       <c r="E11">
-        <v>1.007845465185724</v>
+        <v>1.048843277561924</v>
       </c>
       <c r="F11">
-        <v>1.016098162544415</v>
+        <v>1.054405548570408</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041795907867768</v>
+        <v>1.036527217704487</v>
       </c>
       <c r="J11">
-        <v>1.014062590518569</v>
+        <v>1.037806157888204</v>
       </c>
       <c r="K11">
-        <v>1.025947759164198</v>
+        <v>1.045084927428797</v>
       </c>
       <c r="L11">
-        <v>1.022620928793282</v>
+        <v>1.052363412957898</v>
       </c>
       <c r="M11">
-        <v>1.030722745257123</v>
+        <v>1.057905734474637</v>
       </c>
       <c r="N11">
-        <v>1.01550267571171</v>
+        <v>1.039279961670435</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9827541125196604</v>
+        <v>1.030974464206158</v>
       </c>
       <c r="D12">
-        <v>1.01029801367816</v>
+        <v>1.041354942493253</v>
       </c>
       <c r="E12">
-        <v>1.006768845035711</v>
+        <v>1.048619450869396</v>
       </c>
       <c r="F12">
-        <v>1.015017989856579</v>
+        <v>1.054186226633747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041479286886341</v>
+        <v>1.036483782846559</v>
       </c>
       <c r="J12">
-        <v>1.013306717647145</v>
+        <v>1.037657360955644</v>
       </c>
       <c r="K12">
-        <v>1.0252305441126</v>
+        <v>1.044947016251715</v>
       </c>
       <c r="L12">
-        <v>1.02176750355634</v>
+        <v>1.052184748258511</v>
       </c>
       <c r="M12">
-        <v>1.029863015965966</v>
+        <v>1.057731281230304</v>
       </c>
       <c r="N12">
-        <v>1.014745729414109</v>
+        <v>1.039130953429164</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9830239774780987</v>
+        <v>1.031025079681029</v>
       </c>
       <c r="D13">
-        <v>1.010499377648614</v>
+        <v>1.041394256431515</v>
       </c>
       <c r="E13">
-        <v>1.00700025376897</v>
+        <v>1.048667452566701</v>
       </c>
       <c r="F13">
-        <v>1.01525018834758</v>
+        <v>1.054233264938282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041547443435578</v>
+        <v>1.036493109550687</v>
       </c>
       <c r="J13">
-        <v>1.013469263762404</v>
+        <v>1.037689279143731</v>
       </c>
       <c r="K13">
-        <v>1.025384785184026</v>
+        <v>1.044976601514712</v>
       </c>
       <c r="L13">
-        <v>1.021950970017775</v>
+        <v>1.052223067880628</v>
       </c>
       <c r="M13">
-        <v>1.030047863804933</v>
+        <v>1.057768700411919</v>
       </c>
       <c r="N13">
-        <v>1.014908506363495</v>
+        <v>1.039162916944739</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.983905662218825</v>
+        <v>1.031190941541896</v>
       </c>
       <c r="D14">
-        <v>1.011157427854242</v>
+        <v>1.04152308211873</v>
       </c>
       <c r="E14">
-        <v>1.007756682535742</v>
+        <v>1.048824771522312</v>
       </c>
       <c r="F14">
-        <v>1.016009098711933</v>
+        <v>1.05438741619932</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041769843915131</v>
+        <v>1.036523631775016</v>
       </c>
       <c r="J14">
-        <v>1.014000293479915</v>
+        <v>1.037793858622694</v>
       </c>
       <c r="K14">
-        <v>1.025888651876292</v>
+        <v>1.045073528932974</v>
       </c>
       <c r="L14">
-        <v>1.02255056580646</v>
+        <v>1.052348642423171</v>
       </c>
       <c r="M14">
-        <v>1.030651874282057</v>
+        <v>1.057891313381346</v>
       </c>
       <c r="N14">
-        <v>1.015440290204116</v>
+        <v>1.039267644938558</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9844469619918765</v>
+        <v>1.031293147122458</v>
       </c>
       <c r="D15">
-        <v>1.011561556151856</v>
+        <v>1.041602464002913</v>
       </c>
       <c r="E15">
-        <v>1.008221376102474</v>
+        <v>1.048921729852411</v>
       </c>
       <c r="F15">
-        <v>1.016475240406214</v>
+        <v>1.054482414337969</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041906171870233</v>
+        <v>1.036542408878569</v>
       </c>
       <c r="J15">
-        <v>1.014326288851191</v>
+        <v>1.037858291305876</v>
       </c>
       <c r="K15">
-        <v>1.026197948043116</v>
+        <v>1.045133240758893</v>
       </c>
       <c r="L15">
-        <v>1.022918821542189</v>
+        <v>1.052426026382096</v>
       </c>
       <c r="M15">
-        <v>1.031022765060003</v>
+        <v>1.057966864034983</v>
       </c>
       <c r="N15">
-        <v>1.015766748526211</v>
+        <v>1.039332169123541</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9875686090238446</v>
+        <v>1.031888219726625</v>
       </c>
       <c r="D16">
-        <v>1.013893990234752</v>
+        <v>1.042064623908207</v>
       </c>
       <c r="E16">
-        <v>1.010905618416234</v>
+        <v>1.049486509842446</v>
       </c>
       <c r="F16">
-        <v>1.019166690520041</v>
+        <v>1.055035655841079</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042689106795611</v>
+        <v>1.036651261946292</v>
       </c>
       <c r="J16">
-        <v>1.016205884904534</v>
+        <v>1.038233283309167</v>
       </c>
       <c r="K16">
-        <v>1.027980880696446</v>
+        <v>1.045480661033162</v>
       </c>
       <c r="L16">
-        <v>1.025044613504492</v>
+        <v>1.052876637207954</v>
       </c>
       <c r="M16">
-        <v>1.033162610316055</v>
+        <v>1.058406673191801</v>
       </c>
       <c r="N16">
-        <v>1.017649013821543</v>
+        <v>1.039707693658488</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9895018683856488</v>
+        <v>1.032261661416779</v>
       </c>
       <c r="D17">
-        <v>1.015340034695647</v>
+        <v>1.042354631831504</v>
       </c>
       <c r="E17">
-        <v>1.012571762564469</v>
+        <v>1.049841168268011</v>
       </c>
       <c r="F17">
-        <v>1.020836295075145</v>
+        <v>1.05538296258212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043171075352861</v>
+        <v>1.036719156591808</v>
       </c>
       <c r="J17">
-        <v>1.017369539054548</v>
+        <v>1.038468475141944</v>
       </c>
       <c r="K17">
-        <v>1.02908433931018</v>
+        <v>1.045698474698389</v>
       </c>
       <c r="L17">
-        <v>1.02636289629206</v>
+        <v>1.053159471036333</v>
       </c>
       <c r="M17">
-        <v>1.034488592315572</v>
+        <v>1.058682616008686</v>
       </c>
       <c r="N17">
-        <v>1.018814320493923</v>
+        <v>1.039943219490644</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9906207869814244</v>
+        <v>1.032479544038832</v>
       </c>
       <c r="D18">
-        <v>1.016177497110921</v>
+        <v>1.04252382674037</v>
       </c>
       <c r="E18">
-        <v>1.013537412954307</v>
+        <v>1.050048173469902</v>
       </c>
       <c r="F18">
-        <v>1.021803587066362</v>
+        <v>1.055585638627061</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043448960576687</v>
+        <v>1.036758619111505</v>
       </c>
       <c r="J18">
-        <v>1.018042873228559</v>
+        <v>1.038605647185004</v>
       </c>
       <c r="K18">
-        <v>1.029722708817989</v>
+        <v>1.045825480346328</v>
       </c>
       <c r="L18">
-        <v>1.027126493931084</v>
+        <v>1.053324506818481</v>
       </c>
       <c r="M18">
-        <v>1.035256284164966</v>
+        <v>1.058843590789959</v>
       </c>
       <c r="N18">
-        <v>1.019488610879693</v>
+        <v>1.040080586333739</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9910008527868699</v>
+        <v>1.032553846601686</v>
       </c>
       <c r="D19">
-        <v>1.016462047493842</v>
+        <v>1.042581524267778</v>
       </c>
       <c r="E19">
-        <v>1.013865641028084</v>
+        <v>1.050118780416305</v>
       </c>
       <c r="F19">
-        <v>1.022132311476536</v>
+        <v>1.055654762481364</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043543168148084</v>
+        <v>1.03677205117115</v>
       </c>
       <c r="J19">
-        <v>1.018271558084281</v>
+        <v>1.038652417349809</v>
       </c>
       <c r="K19">
-        <v>1.029939495371568</v>
+        <v>1.045868778940338</v>
       </c>
       <c r="L19">
-        <v>1.027385968422548</v>
+        <v>1.053380790504706</v>
       </c>
       <c r="M19">
-        <v>1.035517087916089</v>
+        <v>1.058898482725525</v>
       </c>
       <c r="N19">
-        <v>1.019717620494141</v>
+        <v>1.040127422917543</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9892953551432037</v>
+        <v>1.032221588403726</v>
       </c>
       <c r="D20">
-        <v>1.015185510704767</v>
+        <v>1.042323512765291</v>
       </c>
       <c r="E20">
-        <v>1.012393644235992</v>
+        <v>1.049803102393213</v>
       </c>
       <c r="F20">
-        <v>1.020657844572465</v>
+        <v>1.055345689718904</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043119700961506</v>
+        <v>1.036711886541356</v>
       </c>
       <c r="J20">
-        <v>1.017245252023844</v>
+        <v>1.038443242453938</v>
       </c>
       <c r="K20">
-        <v>1.028966495291659</v>
+        <v>1.045675109625907</v>
       </c>
       <c r="L20">
-        <v>1.026222011719073</v>
+        <v>1.053129119056406</v>
       </c>
       <c r="M20">
-        <v>1.034346922836028</v>
+        <v>1.058653007671004</v>
       </c>
       <c r="N20">
-        <v>1.018689856961379</v>
+        <v>1.039917950969327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9836464326631729</v>
+        <v>1.03114209672854</v>
       </c>
       <c r="D21">
-        <v>1.010963923947445</v>
+        <v>1.041485144469289</v>
       </c>
       <c r="E21">
-        <v>1.007534218902739</v>
+        <v>1.048778438981622</v>
       </c>
       <c r="F21">
-        <v>1.015785921190551</v>
+        <v>1.054342018230304</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041704498752392</v>
+        <v>1.036514649707446</v>
       </c>
       <c r="J21">
-        <v>1.013844167070443</v>
+        <v>1.037763063026329</v>
       </c>
       <c r="K21">
-        <v>1.025740516556555</v>
+        <v>1.045044987962932</v>
       </c>
       <c r="L21">
-        <v>1.022374245367958</v>
+        <v>1.052311661069256</v>
       </c>
       <c r="M21">
-        <v>1.030474271568046</v>
+        <v>1.057855205924813</v>
       </c>
       <c r="N21">
-        <v>1.015283942077235</v>
+        <v>1.039236805608913</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9800108506838145</v>
+        <v>1.030463927528432</v>
       </c>
       <c r="D22">
-        <v>1.008252464225548</v>
+        <v>1.040958382738063</v>
       </c>
       <c r="E22">
-        <v>1.004419627303785</v>
+        <v>1.048135454350665</v>
       </c>
       <c r="F22">
-        <v>1.01265995487085</v>
+        <v>1.053711862229393</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04078427292943</v>
+        <v>1.036389387898549</v>
       </c>
       <c r="J22">
-        <v>1.011654168129834</v>
+        <v>1.037335311062963</v>
       </c>
       <c r="K22">
-        <v>1.023662191927249</v>
+        <v>1.044648439805744</v>
       </c>
       <c r="L22">
-        <v>1.01990403602593</v>
+        <v>1.051798274192617</v>
       </c>
       <c r="M22">
-        <v>1.027984719404919</v>
+        <v>1.057353802985262</v>
       </c>
       <c r="N22">
-        <v>1.013090833086933</v>
+        <v>1.038808446188695</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9819463619411043</v>
+        <v>1.030823385426193</v>
       </c>
       <c r="D23">
-        <v>1.009695442222312</v>
+        <v>1.041237595106864</v>
       </c>
       <c r="E23">
-        <v>1.006076530118611</v>
+        <v>1.048476192558606</v>
       </c>
       <c r="F23">
-        <v>1.014323227241135</v>
+        <v>1.054045834796071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041275049906682</v>
+        <v>1.036455909977658</v>
       </c>
       <c r="J23">
-        <v>1.012820165849924</v>
+        <v>1.037562079280875</v>
       </c>
       <c r="K23">
-        <v>1.024768826219834</v>
+        <v>1.044858691801782</v>
       </c>
       <c r="L23">
-        <v>1.02121851830534</v>
+        <v>1.05207037476768</v>
       </c>
       <c r="M23">
-        <v>1.029309812399473</v>
+        <v>1.057619586169497</v>
       </c>
       <c r="N23">
-        <v>1.014258486657527</v>
+        <v>1.039035536443488</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9893886964764124</v>
+        <v>1.032239695486808</v>
       </c>
       <c r="D24">
-        <v>1.015255351925157</v>
+        <v>1.04233757401394</v>
       </c>
       <c r="E24">
-        <v>1.012474147312967</v>
+        <v>1.049820302294356</v>
       </c>
       <c r="F24">
-        <v>1.020738498907745</v>
+        <v>1.055362531419059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043142924833588</v>
+        <v>1.036715171994613</v>
       </c>
       <c r="J24">
-        <v>1.017301428657854</v>
+        <v>1.038454644054738</v>
       </c>
       <c r="K24">
-        <v>1.029019760156215</v>
+        <v>1.045685667424369</v>
       </c>
       <c r="L24">
-        <v>1.026285687848118</v>
+        <v>1.053142833613276</v>
       </c>
       <c r="M24">
-        <v>1.034410954854861</v>
+        <v>1.058666386336454</v>
       </c>
       <c r="N24">
-        <v>1.018746113372653</v>
+        <v>1.039929368761708</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.997685371867241</v>
+        <v>1.033885610826464</v>
       </c>
       <c r="D25">
-        <v>1.021473699685281</v>
+        <v>1.043615531498346</v>
       </c>
       <c r="E25">
-        <v>1.019657223596482</v>
+        <v>1.05138551190055</v>
       </c>
       <c r="F25">
-        <v>1.027927330188462</v>
+        <v>1.056894319596044</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045183974951671</v>
+        <v>1.037010565638022</v>
       </c>
       <c r="J25">
-        <v>1.022290884359376</v>
+        <v>1.039489966285671</v>
       </c>
       <c r="K25">
-        <v>1.033747565030309</v>
+        <v>1.046643699672771</v>
       </c>
       <c r="L25">
-        <v>1.031957862181583</v>
+        <v>1.054389852655443</v>
       </c>
       <c r="M25">
-        <v>1.040107044846736</v>
+        <v>1.059881998413344</v>
       </c>
       <c r="N25">
-        <v>1.02374265467357</v>
+        <v>1.040966161268962</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_108/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_108/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035200265770164</v>
+        <v>1.004054217231181</v>
       </c>
       <c r="D2">
-        <v>1.044635980063504</v>
+        <v>1.026260429609557</v>
       </c>
       <c r="E2">
-        <v>1.052638256155214</v>
+        <v>1.025209251973629</v>
       </c>
       <c r="F2">
-        <v>1.058119108826274</v>
+        <v>1.033472629846508</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037241743938605</v>
+        <v>1.04671587321401</v>
       </c>
       <c r="J2">
-        <v>1.040315340478905</v>
+        <v>1.026114339867698</v>
       </c>
       <c r="K2">
-        <v>1.047406473663439</v>
+        <v>1.037365647255857</v>
       </c>
       <c r="L2">
-        <v>1.055386435026599</v>
+        <v>1.036328207731524</v>
       </c>
       <c r="M2">
-        <v>1.060852215044985</v>
+        <v>1.044484531695658</v>
       </c>
       <c r="N2">
-        <v>1.041792707588223</v>
+        <v>1.027571539927273</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036155896752796</v>
+        <v>1.008545844723756</v>
       </c>
       <c r="D3">
-        <v>1.04537756060644</v>
+        <v>1.029642646807608</v>
       </c>
       <c r="E3">
-        <v>1.053550349791475</v>
+        <v>1.029145558600699</v>
       </c>
       <c r="F3">
-        <v>1.059010151720544</v>
+        <v>1.037397728798652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037407022813624</v>
+        <v>1.04777516603354</v>
       </c>
       <c r="J3">
-        <v>1.040914389777309</v>
+        <v>1.028806221773291</v>
       </c>
       <c r="K3">
-        <v>1.047959514080242</v>
+        <v>1.039909788859104</v>
       </c>
       <c r="L3">
-        <v>1.05611115965238</v>
+        <v>1.039418618456651</v>
       </c>
       <c r="M3">
-        <v>1.061557032709588</v>
+        <v>1.04757345566043</v>
       </c>
       <c r="N3">
-        <v>1.042392607605342</v>
+        <v>1.030267244613932</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036774746733029</v>
+        <v>1.011394290764796</v>
       </c>
       <c r="D4">
-        <v>1.045857702897246</v>
+        <v>1.031790086988694</v>
       </c>
       <c r="E4">
-        <v>1.054141679311682</v>
+        <v>1.031651057753038</v>
       </c>
       <c r="F4">
-        <v>1.059587511591875</v>
+        <v>1.039893121469695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037512773598052</v>
+        <v>1.048436893930389</v>
       </c>
       <c r="J4">
-        <v>1.041301895839258</v>
+        <v>1.03051095306472</v>
       </c>
       <c r="K4">
-        <v>1.04831699144894</v>
+        <v>1.041519395592447</v>
       </c>
       <c r="L4">
-        <v>1.056580614999699</v>
+        <v>1.041381919649387</v>
       </c>
       <c r="M4">
-        <v>1.062013253780765</v>
+        <v>1.049532781004905</v>
       </c>
       <c r="N4">
-        <v>1.042780663970347</v>
+        <v>1.03197439681933</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037035028294216</v>
+        <v>1.012578392825502</v>
       </c>
       <c r="D5">
-        <v>1.046059622740226</v>
+        <v>1.032683333698097</v>
       </c>
       <c r="E5">
-        <v>1.054390546609109</v>
+        <v>1.032694755963286</v>
       </c>
       <c r="F5">
-        <v>1.059830422635389</v>
+        <v>1.040931897224054</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037556944423396</v>
+        <v>1.048709523512584</v>
       </c>
       <c r="J5">
-        <v>1.041464773957415</v>
+        <v>1.031219007475043</v>
       </c>
       <c r="K5">
-        <v>1.048467183661131</v>
+        <v>1.042187549951191</v>
       </c>
       <c r="L5">
-        <v>1.056778094880707</v>
+        <v>1.04219884806476</v>
       </c>
       <c r="M5">
-        <v>1.062205085423169</v>
+        <v>1.050347326498317</v>
       </c>
       <c r="N5">
-        <v>1.042943773394113</v>
+        <v>1.032683456748131</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037078737548626</v>
+        <v>1.012776437569863</v>
       </c>
       <c r="D6">
-        <v>1.04609352991789</v>
+        <v>1.032832762885902</v>
       </c>
       <c r="E6">
-        <v>1.054432348451689</v>
+        <v>1.032869443188109</v>
       </c>
       <c r="F6">
-        <v>1.059871219505223</v>
+        <v>1.04110571870844</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037564344064978</v>
+        <v>1.048754976347482</v>
       </c>
       <c r="J6">
-        <v>1.041492120156253</v>
+        <v>1.031337395266098</v>
       </c>
       <c r="K6">
-        <v>1.048492396210842</v>
+        <v>1.042299242997591</v>
       </c>
       <c r="L6">
-        <v>1.056811259672107</v>
+        <v>1.04233552646883</v>
       </c>
       <c r="M6">
-        <v>1.062237296892283</v>
+        <v>1.0504835633569</v>
       </c>
       <c r="N6">
-        <v>1.042971158427691</v>
+        <v>1.032802012663429</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036778224169329</v>
+        <v>1.011410164760805</v>
       </c>
       <c r="D7">
-        <v>1.045860400694572</v>
+        <v>1.031802059684582</v>
       </c>
       <c r="E7">
-        <v>1.05414500362035</v>
+        <v>1.031665041041769</v>
       </c>
       <c r="F7">
-        <v>1.059590756640549</v>
+        <v>1.039907041619171</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037513364938413</v>
+        <v>1.048440558522661</v>
       </c>
       <c r="J7">
-        <v>1.041304072341497</v>
+        <v>1.030520447628102</v>
       </c>
       <c r="K7">
-        <v>1.048318998684622</v>
+        <v>1.041528356683984</v>
       </c>
       <c r="L7">
-        <v>1.056583253262238</v>
+        <v>1.041392868313009</v>
       </c>
       <c r="M7">
-        <v>1.062015816903491</v>
+        <v>1.049543700610577</v>
       </c>
       <c r="N7">
-        <v>1.042782843563469</v>
+        <v>1.031983904866081</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035523123114653</v>
+        <v>1.005584480149823</v>
       </c>
       <c r="D8">
-        <v>1.044886539758375</v>
+        <v>1.027412155393382</v>
       </c>
       <c r="E8">
-        <v>1.052946264708122</v>
+        <v>1.026548355645311</v>
       </c>
       <c r="F8">
-        <v>1.05842007532138</v>
+        <v>1.034808542890314</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037297847953807</v>
+        <v>1.04707884518779</v>
       </c>
       <c r="J8">
-        <v>1.040517816029301</v>
+        <v>1.027031919473858</v>
       </c>
       <c r="K8">
-        <v>1.047593453625484</v>
+        <v>1.038233185103312</v>
       </c>
       <c r="L8">
-        <v>1.055631252742315</v>
+        <v>1.037380330844674</v>
       </c>
       <c r="M8">
-        <v>1.061090378226454</v>
+        <v>1.045536782650995</v>
       </c>
       <c r="N8">
-        <v>1.041995470677124</v>
+        <v>1.028490422601719</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0333152914302</v>
+        <v>0.9948520670589497</v>
       </c>
       <c r="D9">
-        <v>1.043172756994837</v>
+        <v>1.019347856766798</v>
       </c>
       <c r="E9">
-        <v>1.050842760990109</v>
+        <v>1.017198027357672</v>
       </c>
       <c r="F9">
-        <v>1.056363344364621</v>
+        <v>1.025467927153145</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036908946241351</v>
+        <v>1.044492341422939</v>
       </c>
       <c r="J9">
-        <v>1.039131464089577</v>
+        <v>1.020587931025447</v>
       </c>
       <c r="K9">
-        <v>1.046312112492944</v>
+        <v>1.032134638314915</v>
       </c>
       <c r="L9">
-        <v>1.053957668042603</v>
+        <v>1.030018107513966</v>
       </c>
       <c r="M9">
-        <v>1.05946089450463</v>
+        <v>1.038160889789945</v>
       </c>
       <c r="N9">
-        <v>1.040607149958629</v>
+        <v>1.022037282950575</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031846025414848</v>
+        <v>0.9873489350517519</v>
       </c>
       <c r="D10">
-        <v>1.042031855422512</v>
+        <v>1.01372975223533</v>
       </c>
       <c r="E10">
-        <v>1.049446448861814</v>
+        <v>1.010716479799439</v>
       </c>
       <c r="F10">
-        <v>1.054996420117855</v>
+        <v>1.018977109468493</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036643570364821</v>
+        <v>1.042634197389112</v>
       </c>
       <c r="J10">
-        <v>1.038206702851221</v>
+        <v>1.016073639924545</v>
       </c>
       <c r="K10">
-        <v>1.045456040418369</v>
+        <v>1.02785545903661</v>
       </c>
       <c r="L10">
-        <v>1.052844682897175</v>
+        <v>1.024894903600549</v>
       </c>
       <c r="M10">
-        <v>1.058375492004066</v>
+        <v>1.033011976264871</v>
       </c>
       <c r="N10">
-        <v>1.039681075453243</v>
+        <v>1.017516581038513</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031210450157135</v>
+        <v>0.9840091010777663</v>
       </c>
       <c r="D11">
-        <v>1.041538234332009</v>
+        <v>1.011234646736533</v>
       </c>
       <c r="E11">
-        <v>1.048843277561924</v>
+        <v>1.007845465185724</v>
       </c>
       <c r="F11">
-        <v>1.054405548570408</v>
+        <v>1.016098162544416</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036527217704487</v>
+        <v>1.041795907867768</v>
       </c>
       <c r="J11">
-        <v>1.037806157888204</v>
+        <v>1.01406259051857</v>
       </c>
       <c r="K11">
-        <v>1.045084927428797</v>
+        <v>1.025947759164198</v>
       </c>
       <c r="L11">
-        <v>1.052363412957898</v>
+        <v>1.022620928793283</v>
       </c>
       <c r="M11">
-        <v>1.057905734474637</v>
+        <v>1.030722745257123</v>
       </c>
       <c r="N11">
-        <v>1.039279961670435</v>
+        <v>1.015502675711711</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030974464206158</v>
+        <v>0.9827541125196609</v>
       </c>
       <c r="D12">
-        <v>1.041354942493253</v>
+        <v>1.010298013678161</v>
       </c>
       <c r="E12">
-        <v>1.048619450869396</v>
+        <v>1.006768845035712</v>
       </c>
       <c r="F12">
-        <v>1.054186226633747</v>
+        <v>1.015017989856579</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036483782846559</v>
+        <v>1.041479286886342</v>
       </c>
       <c r="J12">
-        <v>1.037657360955644</v>
+        <v>1.013306717647146</v>
       </c>
       <c r="K12">
-        <v>1.044947016251715</v>
+        <v>1.025230544112601</v>
       </c>
       <c r="L12">
-        <v>1.052184748258511</v>
+        <v>1.02176750355634</v>
       </c>
       <c r="M12">
-        <v>1.057731281230304</v>
+        <v>1.029863015965966</v>
       </c>
       <c r="N12">
-        <v>1.039130953429164</v>
+        <v>1.01474572941411</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031025079681029</v>
+        <v>0.9830239774780987</v>
       </c>
       <c r="D13">
-        <v>1.041394256431515</v>
+        <v>1.010499377648614</v>
       </c>
       <c r="E13">
-        <v>1.048667452566701</v>
+        <v>1.00700025376897</v>
       </c>
       <c r="F13">
-        <v>1.054233264938282</v>
+        <v>1.01525018834758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036493109550687</v>
+        <v>1.041547443435578</v>
       </c>
       <c r="J13">
-        <v>1.037689279143731</v>
+        <v>1.013469263762404</v>
       </c>
       <c r="K13">
-        <v>1.044976601514712</v>
+        <v>1.025384785184026</v>
       </c>
       <c r="L13">
-        <v>1.052223067880628</v>
+        <v>1.021950970017774</v>
       </c>
       <c r="M13">
-        <v>1.057768700411919</v>
+        <v>1.030047863804933</v>
       </c>
       <c r="N13">
-        <v>1.039162916944739</v>
+        <v>1.014908506363495</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031190941541896</v>
+        <v>0.9839056622188245</v>
       </c>
       <c r="D14">
-        <v>1.04152308211873</v>
+        <v>1.011157427854241</v>
       </c>
       <c r="E14">
-        <v>1.048824771522312</v>
+        <v>1.007756682535741</v>
       </c>
       <c r="F14">
-        <v>1.05438741619932</v>
+        <v>1.016009098711932</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036523631775016</v>
+        <v>1.041769843915131</v>
       </c>
       <c r="J14">
-        <v>1.037793858622694</v>
+        <v>1.014000293479914</v>
       </c>
       <c r="K14">
-        <v>1.045073528932974</v>
+        <v>1.025888651876292</v>
       </c>
       <c r="L14">
-        <v>1.052348642423171</v>
+        <v>1.022550565806459</v>
       </c>
       <c r="M14">
-        <v>1.057891313381346</v>
+        <v>1.030651874282056</v>
       </c>
       <c r="N14">
-        <v>1.039267644938558</v>
+        <v>1.015440290204115</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031293147122458</v>
+        <v>0.9844469619918763</v>
       </c>
       <c r="D15">
-        <v>1.041602464002913</v>
+        <v>1.011561556151856</v>
       </c>
       <c r="E15">
-        <v>1.048921729852411</v>
+        <v>1.008221376102474</v>
       </c>
       <c r="F15">
-        <v>1.054482414337969</v>
+        <v>1.016475240406213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036542408878569</v>
+        <v>1.041906171870233</v>
       </c>
       <c r="J15">
-        <v>1.037858291305876</v>
+        <v>1.01432628885119</v>
       </c>
       <c r="K15">
-        <v>1.045133240758893</v>
+        <v>1.026197948043115</v>
       </c>
       <c r="L15">
-        <v>1.052426026382096</v>
+        <v>1.022918821542188</v>
       </c>
       <c r="M15">
-        <v>1.057966864034983</v>
+        <v>1.031022765060003</v>
       </c>
       <c r="N15">
-        <v>1.039332169123541</v>
+        <v>1.01576674852621</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031888219726625</v>
+        <v>0.9875686090238451</v>
       </c>
       <c r="D16">
-        <v>1.042064623908207</v>
+        <v>1.013893990234753</v>
       </c>
       <c r="E16">
-        <v>1.049486509842446</v>
+        <v>1.010905618416234</v>
       </c>
       <c r="F16">
-        <v>1.055035655841079</v>
+        <v>1.019166690520042</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036651261946292</v>
+        <v>1.042689106795612</v>
       </c>
       <c r="J16">
-        <v>1.038233283309167</v>
+        <v>1.016205884904535</v>
       </c>
       <c r="K16">
-        <v>1.045480661033162</v>
+        <v>1.027980880696447</v>
       </c>
       <c r="L16">
-        <v>1.052876637207954</v>
+        <v>1.025044613504493</v>
       </c>
       <c r="M16">
-        <v>1.058406673191801</v>
+        <v>1.033162610316056</v>
       </c>
       <c r="N16">
-        <v>1.039707693658488</v>
+        <v>1.017649013821543</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032261661416779</v>
+        <v>0.9895018683856492</v>
       </c>
       <c r="D17">
-        <v>1.042354631831504</v>
+        <v>1.015340034695648</v>
       </c>
       <c r="E17">
-        <v>1.049841168268011</v>
+        <v>1.012571762564469</v>
       </c>
       <c r="F17">
-        <v>1.05538296258212</v>
+        <v>1.020836295075145</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036719156591808</v>
+        <v>1.043171075352862</v>
       </c>
       <c r="J17">
-        <v>1.038468475141944</v>
+        <v>1.017369539054548</v>
       </c>
       <c r="K17">
-        <v>1.045698474698389</v>
+        <v>1.02908433931018</v>
       </c>
       <c r="L17">
-        <v>1.053159471036333</v>
+        <v>1.02636289629206</v>
       </c>
       <c r="M17">
-        <v>1.058682616008686</v>
+        <v>1.034488592315572</v>
       </c>
       <c r="N17">
-        <v>1.039943219490644</v>
+        <v>1.018814320493923</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032479544038832</v>
+        <v>0.9906207869814242</v>
       </c>
       <c r="D18">
-        <v>1.04252382674037</v>
+        <v>1.016177497110921</v>
       </c>
       <c r="E18">
-        <v>1.050048173469902</v>
+        <v>1.013537412954307</v>
       </c>
       <c r="F18">
-        <v>1.055585638627061</v>
+        <v>1.021803587066362</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036758619111505</v>
+        <v>1.043448960576687</v>
       </c>
       <c r="J18">
-        <v>1.038605647185004</v>
+        <v>1.018042873228558</v>
       </c>
       <c r="K18">
-        <v>1.045825480346328</v>
+        <v>1.029722708817988</v>
       </c>
       <c r="L18">
-        <v>1.053324506818481</v>
+        <v>1.027126493931083</v>
       </c>
       <c r="M18">
-        <v>1.058843590789959</v>
+        <v>1.035256284164966</v>
       </c>
       <c r="N18">
-        <v>1.040080586333739</v>
+        <v>1.019488610879693</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032553846601686</v>
+        <v>0.9910008527868706</v>
       </c>
       <c r="D19">
-        <v>1.042581524267778</v>
+        <v>1.016462047493843</v>
       </c>
       <c r="E19">
-        <v>1.050118780416305</v>
+        <v>1.013865641028084</v>
       </c>
       <c r="F19">
-        <v>1.055654762481364</v>
+        <v>1.022132311476537</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03677205117115</v>
+        <v>1.043543168148085</v>
       </c>
       <c r="J19">
-        <v>1.038652417349809</v>
+        <v>1.018271558084282</v>
       </c>
       <c r="K19">
-        <v>1.045868778940338</v>
+        <v>1.029939495371569</v>
       </c>
       <c r="L19">
-        <v>1.053380790504706</v>
+        <v>1.027385968422549</v>
       </c>
       <c r="M19">
-        <v>1.058898482725525</v>
+        <v>1.03551708791609</v>
       </c>
       <c r="N19">
-        <v>1.040127422917543</v>
+        <v>1.019717620494141</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032221588403726</v>
+        <v>0.9892953551432041</v>
       </c>
       <c r="D20">
-        <v>1.042323512765291</v>
+        <v>1.015185510704767</v>
       </c>
       <c r="E20">
-        <v>1.049803102393213</v>
+        <v>1.012393644235992</v>
       </c>
       <c r="F20">
-        <v>1.055345689718904</v>
+        <v>1.020657844572465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036711886541356</v>
+        <v>1.043119700961506</v>
       </c>
       <c r="J20">
-        <v>1.038443242453938</v>
+        <v>1.017245252023844</v>
       </c>
       <c r="K20">
-        <v>1.045675109625907</v>
+        <v>1.028966495291659</v>
       </c>
       <c r="L20">
-        <v>1.053129119056406</v>
+        <v>1.026222011719073</v>
       </c>
       <c r="M20">
-        <v>1.058653007671004</v>
+        <v>1.034346922836028</v>
       </c>
       <c r="N20">
-        <v>1.039917950969327</v>
+        <v>1.018689856961379</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03114209672854</v>
+        <v>0.9836464326631731</v>
       </c>
       <c r="D21">
-        <v>1.041485144469289</v>
+        <v>1.010963923947445</v>
       </c>
       <c r="E21">
-        <v>1.048778438981622</v>
+        <v>1.007534218902739</v>
       </c>
       <c r="F21">
-        <v>1.054342018230304</v>
+        <v>1.015785921190551</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036514649707446</v>
+        <v>1.041704498752392</v>
       </c>
       <c r="J21">
-        <v>1.037763063026329</v>
+        <v>1.013844167070444</v>
       </c>
       <c r="K21">
-        <v>1.045044987962932</v>
+        <v>1.025740516556555</v>
       </c>
       <c r="L21">
-        <v>1.052311661069256</v>
+        <v>1.022374245367958</v>
       </c>
       <c r="M21">
-        <v>1.057855205924813</v>
+        <v>1.030474271568046</v>
       </c>
       <c r="N21">
-        <v>1.039236805608913</v>
+        <v>1.015283942077235</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030463927528432</v>
+        <v>0.9800108506838142</v>
       </c>
       <c r="D22">
-        <v>1.040958382738063</v>
+        <v>1.008252464225548</v>
       </c>
       <c r="E22">
-        <v>1.048135454350665</v>
+        <v>1.004419627303784</v>
       </c>
       <c r="F22">
-        <v>1.053711862229393</v>
+        <v>1.012659954870849</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036389387898549</v>
+        <v>1.04078427292943</v>
       </c>
       <c r="J22">
-        <v>1.037335311062963</v>
+        <v>1.011654168129834</v>
       </c>
       <c r="K22">
-        <v>1.044648439805744</v>
+        <v>1.023662191927249</v>
       </c>
       <c r="L22">
-        <v>1.051798274192617</v>
+        <v>1.01990403602593</v>
       </c>
       <c r="M22">
-        <v>1.057353802985262</v>
+        <v>1.027984719404919</v>
       </c>
       <c r="N22">
-        <v>1.038808446188695</v>
+        <v>1.013090833086933</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030823385426193</v>
+        <v>0.9819463619411035</v>
       </c>
       <c r="D23">
-        <v>1.041237595106864</v>
+        <v>1.009695442222312</v>
       </c>
       <c r="E23">
-        <v>1.048476192558606</v>
+        <v>1.006076530118611</v>
       </c>
       <c r="F23">
-        <v>1.054045834796071</v>
+        <v>1.014323227241134</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036455909977658</v>
+        <v>1.041275049906682</v>
       </c>
       <c r="J23">
-        <v>1.037562079280875</v>
+        <v>1.012820165849923</v>
       </c>
       <c r="K23">
-        <v>1.044858691801782</v>
+        <v>1.024768826219834</v>
       </c>
       <c r="L23">
-        <v>1.05207037476768</v>
+        <v>1.02121851830534</v>
       </c>
       <c r="M23">
-        <v>1.057619586169497</v>
+        <v>1.029309812399473</v>
       </c>
       <c r="N23">
-        <v>1.039035536443488</v>
+        <v>1.014258486657527</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032239695486808</v>
+        <v>0.9893886964764119</v>
       </c>
       <c r="D24">
-        <v>1.04233757401394</v>
+        <v>1.015255351925156</v>
       </c>
       <c r="E24">
-        <v>1.049820302294356</v>
+        <v>1.012474147312967</v>
       </c>
       <c r="F24">
-        <v>1.055362531419059</v>
+        <v>1.020738498907745</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036715171994613</v>
+        <v>1.043142924833588</v>
       </c>
       <c r="J24">
-        <v>1.038454644054738</v>
+        <v>1.017301428657854</v>
       </c>
       <c r="K24">
-        <v>1.045685667424369</v>
+        <v>1.029019760156215</v>
       </c>
       <c r="L24">
-        <v>1.053142833613276</v>
+        <v>1.026285687848118</v>
       </c>
       <c r="M24">
-        <v>1.058666386336454</v>
+        <v>1.034410954854861</v>
       </c>
       <c r="N24">
-        <v>1.039929368761708</v>
+        <v>1.018746113372653</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033885610826464</v>
+        <v>0.9976853718672423</v>
       </c>
       <c r="D25">
-        <v>1.043615531498346</v>
+        <v>1.021473699685282</v>
       </c>
       <c r="E25">
-        <v>1.05138551190055</v>
+        <v>1.019657223596484</v>
       </c>
       <c r="F25">
-        <v>1.056894319596044</v>
+        <v>1.027927330188463</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037010565638022</v>
+        <v>1.045183974951671</v>
       </c>
       <c r="J25">
-        <v>1.039489966285671</v>
+        <v>1.022290884359378</v>
       </c>
       <c r="K25">
-        <v>1.046643699672771</v>
+        <v>1.033747565030309</v>
       </c>
       <c r="L25">
-        <v>1.054389852655443</v>
+        <v>1.031957862181584</v>
       </c>
       <c r="M25">
-        <v>1.059881998413344</v>
+        <v>1.040107044846737</v>
       </c>
       <c r="N25">
-        <v>1.040966161268962</v>
+        <v>1.023742654673571</v>
       </c>
     </row>
   </sheetData>
